--- a/tables/suppl_table1.xlsx
+++ b/tables/suppl_table1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Roskams-Hieter et al." sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Etiology</t>
   </si>
   <si>
-    <t xml:space="preserve">LC_type</t>
+    <t xml:space="preserve">Liver cancer type</t>
   </si>
   <si>
     <t xml:space="preserve">SRR15618999</t>
@@ -471,7 +471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -493,6 +493,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -537,8 +545,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -551,23 +567,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -579,414 +578,414 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1006,119 +1005,123 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="0" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1138,119 +1141,123 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="0" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1278,35 +1285,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1328,475 +1335,475 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
